--- a/risk_analysis_report.xlsx
+++ b/risk_analysis_report.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,24 +493,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The direct quote from the text that proves your rating. If no direct evidence exists, the say don't have the data to provide.'</t>
+          <t>DAF / GIP or 'one pager' not yet prepared. Approvals not expected for &gt;3 months. Start date of IT effort unknown.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,29 +520,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Don't have the data to provide.'</t>
+          <t>The project status report includes benefits described as 'The 'HVO B7' tool is projected to generate approximately $3 million per annum in tax rebates for Shell, with the value poised to grow as sales of HVO B7 continue to increase.' Additionally, '31 m$ / year level 1/level 2 Europe benefits were confirmed, down from 55 m$/year.' This indicates the presence of L1 and/or L2 benefits as defined by the project with agreed benefit ownership.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,29 +552,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Don't have the data to provide.</t>
+          <t>The project closure activities are in progress with successful completion of Hypercare and business sign-off, reflecting well-documented requirements for impacted portfolios. The consistent and ongoing completion of tasks and achievements, such as finalized technical documentation and agreed deployment plans, supports readiness to mobilize.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,29 +584,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Don't have the data to provide.</t>
+          <t>Progress &amp; Success: Hypercare successfully completed and ATO signed-off as per plan. Project team dispersed. Closure activities are in progress. The 'HVO B7' tool is projected to generate approximately $3 million per annum in tax rebates for Shell, with the value poised to grow as sales of HVO B7 continue to increase. Challenges &amp; RTGs: None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,29 +616,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cost (Amber): LE &amp; budget is currently showing $2m for the end of year. Completing activities 5 months earlier will result in giveback of funds - approx $0.7-$1m. RTG: Raise PCR to return funds and communicate in Steering project closure in Aug.</t>
+          <t>Cost (RED): $750k budget approved through to the end of July has been spent. RTG: Sandeep to request bridge funding of $250k cover until end of Sep'25 and GIP approval.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,24 +653,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The project has successfully gone live with Carbon IQ and Kendo to SDS Migration was completed on 18th July with no indication of additional staffing needs or skill shortages. There is no mention of lack of skills or capabilities, indicating existing staff can deliver all necessary work.</t>
+          <t>Project team already provided hand over to the support team regarding the changes they need to make. This implies that existing staff can deliver all necessary work as the project is in its closing phase and no specific skill gaps or resource needs are mentioned.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,29 +680,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Don't have the data to provide.</t>
+          <t>Worked with CC team and managed to retain the primary data engineer to continue work on the project, hence the associated risk is mitigated now and Resourcing status moved back to Green.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,24 +717,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>The project status report does not indicate any need for additional staff or prioritization calls, nor does it mention any lack of resources or skills. Therefore, it is implied that existing staff can deliver the work associated with this project.</t>
+          <t>Project team already provided hand over to the support team regarding the changes they need to make. This implies that existing staff can deliver all necessary work as the project is in its closing phase and no specific skill gaps or resource needs are mentioned.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -749,24 +749,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The project status report does not indicate any need for additional staff or prioritization calls, nor does it mention any lack of resources or skills. Therefore, it is implied that existing staff can deliver the work associated with this project.</t>
+          <t>Project team already provided hand over to the support team regarding the changes they need to make. This implies that existing staff can deliver all necessary work as the project is in its closing phase and no specific resource shortages or skill gaps are mentioned.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,29 +776,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Don't have the data to provide.</t>
+          <t>Project team already provided hand over to the support team regarding the changes they need to make. Additionally, Hypercare was successfully completed with sign-off from Business, which indicates that the solution fits within an existing support model or contract, fulfilling the criteria for Green.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -813,24 +813,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Don't have the data to provide.</t>
+          <t>The project status report does not contain any mention of a governance model being defined, drafted, or agreed upon, nor a clear decision owner identified. Therefore, the rating is Red because 'Governance model not yet drafted'.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PRJ4873250</t>
+          <t>PRJ4897790</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025 - MACk (Movements Automatically Connected)</t>
+          <t>2025 Planning and Scheduling IDT Work</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Don't have the data to provide.</t>
+          <t>Hypercare successfully completed and received sign-off from Business. Additionally, there is evidence of coordinated efforts between various teams, such as the AMDP team working with T&amp;S support to make appropriate changes, and technical documentation being shared with the support team. These imply a strong working relationship between business and IT teams, meeting the criteria for Green.</t>
         </is>
       </c>
     </row>

--- a/risk_analysis_report.xlsx
+++ b/risk_analysis_report.xlsx
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">

--- a/risk_analysis_report.xlsx
+++ b/risk_analysis_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,33 +491,33 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The project status report lacks specific information on defined benefits with agreed benefit owners. The report highlights challenges related to market data agreements and other issues impacting potential go-live dates, but there is no mention of a developed benefits case or its defined outcomes in the provided report sections.</t>
+          <t>There is no evidence provided in the project status report that a benefits case has been developed, nor are there any mentions of defined benefits with agreed benefit owners. The report primarily highlights operational issues and completion status without addressing the benefits explicitly.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Develop a clear benefits case with specific, agreed-upon benefit owners to transition the rating to Green. Ensure this is aligned with the project's goals and timelines, addressing any challenges that directly affect these benefits.</t>
+          <t>To improve the rating to Green, it is necessary to develop a clear benefits case with defined L1 and/or L2 benefits, and ensure agreement with identified benefit owners. Revisiting or enhancing the current benefits framework could also help shift the status from Red towards Green.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,33 +526,33 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The project status report indicates that additional requirements gathering is needed in some portfolios. While technical and functional readiness is on track, issues related to Market Data Agreements with ICE exchange and internal reorganization affecting pilot participation suggest that some areas need further attention to formally mobilize.</t>
+          <t>The report indicates that 'All remaining work [is] clearly defined and assigned,' but also notes that 'T-Sys PM late in submitting CR, partially due to misalignment on CR approval' and 'customer wanted more time to review before giving project closure approval.' This suggests that while some requirements are clearly outlined, there is additional gathering needed due to delays and misalignment.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>To achieve a Green rating, ensure all requirements, especially related to Market Data Agreements and pilot customer participation, are comprehensively defined and documented. Address and resolve external dependencies and ensure readiness in all impacted portfolios before proceeding.</t>
+          <t>To achieve a Green rating, ensure all impacted portfolios have thoroughly defined and documented requirements, and resolve any outstanding misalignments or delays in requirement approvals. Enhance coordination among stakeholders to finalize requirements comprehensively.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -570,24 +570,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The project status report indicates that 'Resources (Amber): Hiring of AES tech lead remains challenging', and there is a suggestion to onboard niche recruiters. Additionally, 'RTG track progress and see if additional resources would help improve the delivery' implies that additional staff may be needed.</t>
+          <t>Justification is evident with the comments noted in the status report stating, 'DBA team was able to provide weekend contacts to provide assistance if needed,' and the concern about weekend coverage for migrations, indicating that additional staff or prioritization might be needed for certain support requirements.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>To achieve a Green rating, ensure all necessary staff, especially for key roles like the AES tech lead, are hired and onboarded swiftly. Consider conducting a thorough skills-gap assessment to confirm if further prioritization or resource allocation is needed to support current project commitments and timelines.</t>
+          <t>To achieve a Green rating, ensure existing staffing levels are sufficient by addressing the noted concerns regarding weekend coverage and any potential support planning issues. Consider conducting a resource assessment to identify and resolve possible staffing gaps or prioritize tasks to optimize resource allocation effectively.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,33 +596,33 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The report mentions that 'Global Support Model: Internal model being discussed with the IT Management. Final step is to go to Owen O'Connell in Sept for approval.' This indicates that the governance model is drafted but not yet fully agreed and final approval is still pending, which aligns with the criteria for an Amber rating.</t>
+          <t>The project status report lacks direct evidence of a defined and agreed governance model across IT and business stakeholders. There is no mention of a governance model drafted or agreed upon, nor is there a clear decision owner identified.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>To achieve a Green rating, expedite the agreement and approval process of the governance model with IT Management and ensure it fully addresses the project scope and risk, with clear identification of decision owners.</t>
+          <t>To achieve a Green rating, a comprehensive governance model must be developed, clearly addressing the project scope and risks. It should be agreed upon by IT and business stakeholders, with a clear decision owner identified to oversee governance processes.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -640,24 +640,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The project status report lacks specific information related to budget estimates and their confidence levels. Without specific mention of capacity or scope-based estimates or their confidence intervals, no direct evidence can be found in the report to support a Green or Amber rating. The repeated 'Schedule (Red)' indications due to unresolved Market Data Agreements suggest ongoing issues and possible impact to costs, signifying a planning number based on little science.</t>
+          <t>The project status report contains several references highlighting budget challenges: the need to increase the budget due to additional work required ('CR requested to extend project end date and budget increase to cover additional work'), and mentions of budget exhaustion ('Project budget exhausted') and cost increase requests ('CR request sent to Shell, cost increase included'). These evidences suggest that the estimates were based on little science with a +/- 50% confidence level.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>To improve the rating to Green, the project team should establish a detailed capacity or scope-based budget estimate with defined confidence levels. Address any pending agreements or external dependencies impacting budget predictions and ensure a more data-driven approach to future budget estimations.</t>
+          <t>To improve the rating, it is essential to develop a more structured capacity or scope-based estimate with a higher confidence level. Review the project's budgetary projections, and ensure detailed and data-driven estimations that can handle potential project scope changes and extensions. Establish consistent budget monitoring practices to ensure alignment with project progress.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -675,24 +675,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DAF / GIP or 'one pager' not yet prepared. Approvals not expected for &gt;3 months. Start date of IT effort unknown. Schedule (Red): Externalisation: Market Data Agreements may not be agreed with ICE exchange prior to go-live. Need agreement by end of Aug if we are to stick with the go-live end of Sept. Technical &amp; functional readiness is on track for Sept; however, significant legal and agreement details remain unresolved.</t>
+          <t>There is no direct evidence from the project status report that a DAF / GIP or 'one pager' is prepared, and approvals are not mentioned. Furthermore, there is no clear start date for the IT effort. The comments across the report focus on operational and completion-related details rather than planning, approvals, or IT effort start dates.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>To move the rating to Green, prioritize resolving Market Data Agreements with ICE exchange, and ensure all internal approvals are fast-tracked. Establish a concrete start date for the IT effort once these approvals and agreements are secured.</t>
+          <t>To improve the rating to Green, there is a need to prepare the DAF / GIP or 'one pager', obtain all necessary internal approvals from impacted portfolios, and establish a clear start date for the IT effort. Coordination with all stakeholders to finalize these aspects is crucial.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -710,24 +710,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Global Support Model: Internal model being discussed with the IT Management. Final step is to go to Owen O'Connell in Sept for approval. The support model is currently unclear as it is still under discussion and has not yet been finalized or approved, thereby resulting in an unclear support model assessment.</t>
+          <t>The project status report does not provide direct evidence of a clear support model or existing support contracts, nor does it mention a continuous delivery (DevOps) model that already exists. Instead, statements such as 'only as needed support' and concerns about 'weekend coverage for migrations' indicate unclear or ad hoc support planning.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>To move the rating to Green, prioritize the finalization and approval of the Global Support Model. Ensure it fits within an established support model or contract, such as Accenture Managed Service, to guarantee effective ongoing support for the solution.</t>
+          <t>To improve the rating to Green, establish a clearly defined support model incorporated within an existing contract, such as an Accenture Managed Service. Ensure comprehensive support planning is in place, with formal agreements that cover all necessary requirements, including weekend and short-term support needs.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -745,24 +745,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>The report mentions 'Resources (Amber): Hiring of AES tech lead remains challenging' and suggests 'RTG track progress and see if additional resources would help improve the delivery,' implying that additional staff may be needed and/or a prioritization call is needed.</t>
+          <t>The report highlights concerns related to staffing resources: 'some concern on weekend coverage for migrations,' and also mentions, 'Lowlights- short notice given on needed support cause support planning issues.' This suggests that although existing staff can handle the work, there is a need for additional support especially for weekend coverage and planning.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>To achieve a Green rating, ensure all necessary staff, particularly for key roles like the AES tech lead, are hired and onboarded without delays. Consider conducting a skills-gap analysis to confirm if further resource allocation is needed to meet the project's current demands and maintain its timeline.</t>
+          <t>To improve the rating to Green, ensure that existing staffing levels are sufficient to cover all required periods including weekends. Consider conducting a resource assessment to identify staffing gaps and implement better support planning to handle short notice coverage needs effectively.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -771,33 +771,33 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The project status report lacks direct evidence of a strong working relationship between business and IT teams or past successful collaborations. Additionally, the report does not mention any previous experience or current team building efforts to improve the relationship, indicating a lack of experience or challenged relationship.</t>
+          <t>The project status report shows that there is some level of existing collaboration between business and IT teams, as evidenced by statements like 'DBA team was able to provide weekend contacts to provide assistance if needed.' However, there are mentions of 'short notice given on needed support cause support planning issues' and 'misalignment on CR approval', indicating that additional team building is necessary to improve the relationship further.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>To move the rating to Green, it's essential to enhance collaboration efforts between business and IT teams. Initiate joint team-building activities, document previous successful collaborations if any exist, and establish clear communication channels to build a strong partnership.</t>
+          <t>To improve the rating to Green, it is essential to enhance collaboration by addressing identified misalignments and communication issues. Implementing structured team-building activities and improving communication protocols could help foster stronger relationships between business and IT teams, ensuring smoother project execution.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -806,33 +806,33 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>While technical and functional readiness is on track for September and the PEN Test completed without any major or critical findings, the project still faces significant challenges. There are unresolved issues concerning the Market Data Agreements with ICE exchange critical for the go-live, and security developments are slightly behind plan, impacting the PEN test timeline. This indicates that additional time and work are needed to resolve these challenges before the solution​ can be fully defined and considered ready.</t>
+          <t>The project status report indicates that 'All project related task have been implemented,' and 'All remaining work clearly defined and assigned.' Moreover, while the project had been in red status previously, the report describes actions taken to correct this, stating, 'Project to be extended to Sept 30th, the extra time is to support the Shell team. this should correct the current RED status of the project and return it to green.' These details suggest that the solution is now understood and ready to mobilize.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>To achieve a Green rating, immediately prioritize resolving the Market Data Agreements with ICE exchange, and address any security developments impacting the PEN test timeline. Ensure all dependencies are managed and that any pilot customer participation issues are resolved promptly to keep the project on track for the planned go-live dates.</t>
+          <t>Continue monitoring the project to ensure that any further issues are promptly addressed and that the solution remains ready to mobilize as planned. Maintain good communication with the Shell team and other stakeholders to ensure the project stays on track.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -850,24 +850,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The project status report discusses an 'Internal model being discussed with the IT Management.' However, it mentions 'Challenges &amp; RTG: Resources (Amber): Hiring of AES tech lead remains challenging RTG Plan: Continue to Onboard Niche recruiters' and 'RTG track progress and see if additional resources would help improve the delivery,' indicating that requests for resources have been made but firm commitments are not evident.</t>
+          <t>There is a statement highlighting resource concerns: 'some concern on weekend coverage for migrations,' which suggests a request has been made but no firm commitments secured.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>To achieve a Green rating, finalize resource discussions by obtaining firm commitments from the necessary IT resources. Implement effective hiring strategies to swiftly fill key positions like the AES tech lead and ensure resource allocations are aligned with project demands and timelines.</t>
+          <t>To achieve a Green rating, ensure formal commitments are obtained for necessary resources, especially concerning weekend coverage for migrations. Address any support planning issues to provide consistent and adequate coverage.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PRJ0016435</t>
+          <t>PRJ5030372</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Downstream Exchange Product (DSX)</t>
+          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -885,432 +885,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The project status report indicates 'Resources (Amber): Hiring of AES tech lead remains challenging RTG Plan: Continue to Onboard Niche recruiters' and 'RTG track progress and see if additional resources would help improve the delivery'. This implies additional staff may be needed or a prioritization call is needed.</t>
+          <t>There is evidence of concern regarding resources: 'some concern on weekend coverage for migrations.' This indicates that while current resources are generally sufficient, additional staffing or prioritization might still be necessary to meet certain requirements.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>To achieve a Green rating, ensure all necessary staff, especially for key roles like the AES tech lead, are hired and onboarded swiftly. Consider conducting a thorough skills-gap assessment to confirm if further prioritization or resource allocation is needed to support current project commitments and timelines.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>business_case</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>The project status report lacks any mention of defined L1 and/or L2 benefits, agreed benefit owners, or a benefits case. The sections provided do not offer any direct evidence of a benefits case being developed or that existing benefits are defined, which places this under the 'RED' category due to the criteria stating 'No Benefits case developed / existing benefits no longer valid'.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Develop a comprehensive benefits case including defined benefits and owners to align the project with strategic objectives and meet 'GREEN' criteria. This will help ensure the project delivers value and justifies the investment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>business_requirements</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>The project status report indicates that 'Completed requirement, scoping and got sign off - 13th Aug'. This statement confirms that requirements for impacted portfolios are clearly defined and documented, fulfilling the criteria for a 'GREEN' rating.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Maintain the documentation of the requirements and ensure continuous alignment with the project scope as development progresses. Regular review and validation of the requirements with stakeholders will help sustain the Green rating.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>commercialops_functions_support​</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>The project status report indicates that there are no challenges ('Challenges &amp; RTG: None') and no comments on resources, schedule, cost, or any other section that would suggest a need for additional staff or prioritization. This implies that existing staff can deliver all necessary work.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Continue with the current staffing levels, ensuring that any emerging resource needs are addressed promptly to maintain the efficient delivery of project objectives. Regular monitoring of team workload and capacity will help sustain the Green rating.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>effective_governance​</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>The project status report lacks any mention of a governance model being defined, drafted, or agreed upon. There is no evidence of a governance model that addresses the project scope and risk, nor is there a clear decision owner identified. Consequently, this aligns with the 'RED' category where the governance model is not yet drafted.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>It is essential to develop a comprehensive governance model that is agreed upon by both IT and Business stakeholders, addressing the project's scope and risk. Identify a clear decision owner to ensure effective governance and shift the rating to 'GREEN'. This will improve strategic decision-making and project oversight.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>estimate_budget_accuracy​</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>The project status report does not contain any direct information regarding budget estimates or the level of confidence about budget estimates. Comments on budget, cost, resources, and schedule are all either empty or contain dashes, indicating a lack of detailed information. Consequently, this suggests a planning number based on little science, aligning with the 'RED' rating.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>It is critical to develop a detailed budget estimate with a quantified level of confidence. Project management should prioritize creating a capacity or scope-based estimate with sufficient detail to achieve at least a 'GREEN' or 'AMBER' rating. This will facilitate better financial planning and risk management moving forward.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>firmness_of_opportunity</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>The project status report indicates that requirements and scoping were completed and signed off on August 13th. The design was also completed and signed off on the same date. Additionally, the statement 'Currently in iterative development for MVP (U/Prog), Started development for DEAL GUI Changes' and 'Started Regression testing, planned to complete Fri 26th Sept' imply that the start date of IT effort is known and the project is well underway without any mentioned challenges.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Continue monitoring the project to ensure all internal approvals remain valid as the project progresses. Maintain communication with all impacted portfolios to promptly address any emerging issues and sustain the Green rating.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>ongoing_supportability_of_solution​​</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>The project status report does not provide any information about the support model for the solution. There is no mention of an existing support model or contract, amendments needed, or plans for a new support arrangement. Therefore, this aligns with the 'RED' category where the support model is unclear.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Clarify support requirements by reviewing the solution's fit within existing models or determine if a new support framework is needed. Establish clear support mechanisms to enhance the solution's supportability rating.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>owning_portfolio_it_resource_capacity​</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>The project status report lists no comments about current resource challenges or needs, and there are no additional staff requirements or prioritization calls mentioned. The section 'Challenges &amp; RTG' mentions 'None', indicating that existing staff can deliver the work, aligning with the 'GREEN' criteria.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Continue monitoring to ensure the staff capacity remains sufficient as the project progresses and that potential resource changes are addressed proactively to maintain the Green rating.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>partnership_and_collaboration</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>The project status report lacks direct evidence of past collaboration experience or a solid working relationship between Business and IT teams. There are no statements referring to any experience working together or the quality of their relationship, which aligns with the 'RED' criteria: 'Business and IT teams do not have experience working together OR have experience but relationship is challenged'.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>It is crucial to facilitate initial team-building activities to encourage collaboration and establish a strong working relationship between Business and IT teams. Developing a mutual understanding of goals and expectations will help transition this rating to 'AMBER' or 'GREEN'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>solution​</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>The project status report indicates 'Completed requirement, scoping and got sign off - 13th Aug' and 'Completed Design and sign off - 13th Aug'. Additionally, 'Currently in iterative development for MVP (U/Prog), Started development for DEAL GUI Changes' demonstrates that the solution is well-defined and understood, ready for mobilization. No challenges are mentioned, supporting the solution's readiness.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Proceed with the current development phases and maintain regular progress checks to ensure that the solution remains aligned with the project objectives. Continue to document any changes or updates to the solution to preserve the Green rating.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ts_and_broader_rds_it_resource_Capacity</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Amber</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>The project status report lacks explicit mentions of resource discussion outcomes or commitments. Sections such as 'Comments on Resources' are empty, and there are no direct quotes that confirm resource commitments. The absence of firm commitments places this in the 'AMBER' category as per the criteria: 'Request made, no firm commitments made'.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Engage with relevant stakeholders to secure firm resource commitments. This will ensure that the project has the necessary resources to proceed without risking delays or capability gaps. Formalizing these commitments can shift the rating to 'GREEN'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>PRJ5025201</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CI Tracker Canada</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>ts_process_team_within_comm_ops_bia_org​</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>The project status report indicates 'Challenges &amp; RTG: None', and there are no comments on resources needed, suggesting that the existing staff can deliver the work without additional external resources, aligning with the criteria for a 'GREEN' rating.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Continue monitoring project progress to ensure that staffing remains adequate and promptly address any future resource needs to maintain the Green rating. Regular updates and capacity checks should be conducted to sustain operational efficiency throughout the project.</t>
+          <t>To achieve a Green rating, ensure that existing staff levels are truly sufficient by addressing the weekend coverage concern, potentially by reassessing staffing requirements during critical periods and adjusting priorities to optimize resource allocation effectively.</t>
         </is>
       </c>
     </row>

--- a/risk_analysis_report.xlsx
+++ b/risk_analysis_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>business_case</t>
+          <t>firmness_of_opportunity</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -500,397 +500,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>There is no evidence provided in the project status report that a benefits case has been developed, nor are there any mentions of defined benefits with agreed benefit owners. The report primarily highlights operational issues and completion status without addressing the benefits explicitly.</t>
+          <t>The report does not provide any evidence of DAF / GIP or 'one pager' prepared, nor indications of all internal approvals obtained. The start date of the IT effort is known as March 27, 2025, but there are no specifics on approvals or their expected timeline. History of schedule changes and issues imply that approvals might not be forthcoming soon.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>To improve the rating to Green, it is necessary to develop a clear benefits case with defined L1 and/or L2 benefits, and ensure agreement with identified benefit owners. Revisiting or enhancing the current benefits framework could also help shift the status from Red towards Green.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>business_requirements</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Amber</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>The report indicates that 'All remaining work [is] clearly defined and assigned,' but also notes that 'T-Sys PM late in submitting CR, partially due to misalignment on CR approval' and 'customer wanted more time to review before giving project closure approval.' This suggests that while some requirements are clearly outlined, there is additional gathering needed due to delays and misalignment.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>To achieve a Green rating, ensure all impacted portfolios have thoroughly defined and documented requirements, and resolve any outstanding misalignments or delays in requirement approvals. Enhance coordination among stakeholders to finalize requirements comprehensively.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>commercialops_functions_support​</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Amber</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Justification is evident with the comments noted in the status report stating, 'DBA team was able to provide weekend contacts to provide assistance if needed,' and the concern about weekend coverage for migrations, indicating that additional staff or prioritization might be needed for certain support requirements.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>To achieve a Green rating, ensure existing staffing levels are sufficient by addressing the noted concerns regarding weekend coverage and any potential support planning issues. Consider conducting a resource assessment to identify and resolve possible staffing gaps or prioritize tasks to optimize resource allocation effectively.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>effective_governance​</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>The project status report lacks direct evidence of a defined and agreed governance model across IT and business stakeholders. There is no mention of a governance model drafted or agreed upon, nor is there a clear decision owner identified.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>To achieve a Green rating, a comprehensive governance model must be developed, clearly addressing the project scope and risks. It should be agreed upon by IT and business stakeholders, with a clear decision owner identified to oversee governance processes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>estimate_budget_accuracy​</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>The project status report contains several references highlighting budget challenges: the need to increase the budget due to additional work required ('CR requested to extend project end date and budget increase to cover additional work'), and mentions of budget exhaustion ('Project budget exhausted') and cost increase requests ('CR request sent to Shell, cost increase included'). These evidences suggest that the estimates were based on little science with a +/- 50% confidence level.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>To improve the rating, it is essential to develop a more structured capacity or scope-based estimate with a higher confidence level. Review the project's budgetary projections, and ensure detailed and data-driven estimations that can handle potential project scope changes and extensions. Establish consistent budget monitoring practices to ensure alignment with project progress.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>firmness_of_opportunity</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>There is no direct evidence from the project status report that a DAF / GIP or 'one pager' is prepared, and approvals are not mentioned. Furthermore, there is no clear start date for the IT effort. The comments across the report focus on operational and completion-related details rather than planning, approvals, or IT effort start dates.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>To improve the rating to Green, there is a need to prepare the DAF / GIP or 'one pager', obtain all necessary internal approvals from impacted portfolios, and establish a clear start date for the IT effort. Coordination with all stakeholders to finalize these aspects is crucial.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ongoing_supportability_of_solution​​</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>The project status report does not provide direct evidence of a clear support model or existing support contracts, nor does it mention a continuous delivery (DevOps) model that already exists. Instead, statements such as 'only as needed support' and concerns about 'weekend coverage for migrations' indicate unclear or ad hoc support planning.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>To improve the rating to Green, establish a clearly defined support model incorporated within an existing contract, such as an Accenture Managed Service. Ensure comprehensive support planning is in place, with formal agreements that cover all necessary requirements, including weekend and short-term support needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>owning_portfolio_it_resource_capacity​</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Amber</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>The report highlights concerns related to staffing resources: 'some concern on weekend coverage for migrations,' and also mentions, 'Lowlights- short notice given on needed support cause support planning issues.' This suggests that although existing staff can handle the work, there is a need for additional support especially for weekend coverage and planning.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>To improve the rating to Green, ensure that existing staffing levels are sufficient to cover all required periods including weekends. Consider conducting a resource assessment to identify staffing gaps and implement better support planning to handle short notice coverage needs effectively.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>partnership_and_collaboration</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Amber</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>The project status report shows that there is some level of existing collaboration between business and IT teams, as evidenced by statements like 'DBA team was able to provide weekend contacts to provide assistance if needed.' However, there are mentions of 'short notice given on needed support cause support planning issues' and 'misalignment on CR approval', indicating that additional team building is necessary to improve the relationship further.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>To improve the rating to Green, it is essential to enhance collaboration by addressing identified misalignments and communication issues. Implementing structured team-building activities and improving communication protocols could help foster stronger relationships between business and IT teams, ensuring smoother project execution.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>solution​</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>The project status report indicates that 'All project related task have been implemented,' and 'All remaining work clearly defined and assigned.' Moreover, while the project had been in red status previously, the report describes actions taken to correct this, stating, 'Project to be extended to Sept 30th, the extra time is to support the Shell team. this should correct the current RED status of the project and return it to green.' These details suggest that the solution is now understood and ready to mobilize.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Continue monitoring the project to ensure that any further issues are promptly addressed and that the solution remains ready to mobilize as planned. Maintain good communication with the Shell team and other stakeholders to ensure the project stays on track.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ts_and_broader_rds_it_resource_Capacity</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Amber</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>There is a statement highlighting resource concerns: 'some concern on weekend coverage for migrations,' which suggests a request has been made but no firm commitments secured.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>To achieve a Green rating, ensure formal commitments are obtained for necessary resources, especially concerning weekend coverage for migrations. Address any support planning issues to provide consistent and adequate coverage.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PRJ5030372</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DMND0030713_T1PRJ0006688_Qlik Replicate ASM Credential Handling_TSI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ts_process_team_within_comm_ops_bia_org​</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Amber</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>There is evidence of concern regarding resources: 'some concern on weekend coverage for migrations.' This indicates that while current resources are generally sufficient, additional staffing or prioritization might still be necessary to meet certain requirements.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>To achieve a Green rating, ensure that existing staff levels are truly sufficient by addressing the weekend coverage concern, potentially by reassessing staffing requirements during critical periods and adjusting priorities to optimize resource allocation effectively.</t>
+          <t>To move towards a Green rating, ensure that DAF / GIP or 'one pager' is prepared and obtain all necessary internal approvals from impacted portfolios. Establish a clear and committed timeline for obtaining these approvals to prevent further delays.</t>
         </is>
       </c>
     </row>
